--- a/api_link/experiment.xlsx
+++ b/api_link/experiment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pandas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="340">
   <si>
     <t>Post ID</t>
   </si>
@@ -172,18 +172,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.where.html#pandas.DataFrame.where</t>
   </si>
   <si>
-    <t>iterrows</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.iterrows.html#pandas.DataFrame.iterrows</t>
-  </si>
-  <si>
-    <t>itertuples</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.itertuples.html#pandas.DataFrame.itertuples</t>
-  </si>
-  <si>
     <t>dtype</t>
   </si>
   <si>
@@ -382,45 +370,18 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.core.groupby.DataFrameGroupBy.any.html#pandas.core.groupby.DataFrameGroupBy.any</t>
   </si>
   <si>
-    <t>df.to_string()</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.to_string.html#pandas.DataFrame.to_string</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
     <t>pandas.Series.str.contains</t>
   </si>
   <si>
-    <t>df.applymap</t>
-  </si>
-  <si>
     <t>pandas.DataFrame.applymap</t>
   </si>
   <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.applymap.html#pandas.DataFrame.applymap</t>
-  </si>
-  <si>
-    <t>select_dtypes</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.select_dtypes.html#pandas.DataFrame.select_dtypes</t>
-  </si>
-  <si>
     <t>str.contains</t>
   </si>
   <si>
-    <t>pd.concat</t>
-  </si>
-  <si>
-    <t>pandas.concat</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.concat.html#pandas.concat</t>
-  </si>
-  <si>
     <t>https://docs.python.org/2/library/functions.html#apply</t>
   </si>
   <si>
@@ -520,12 +481,6 @@
     <t>pandas.DataFrame.loc</t>
   </si>
   <si>
-    <t>pandas.DataFrame.iterrows</t>
-  </si>
-  <si>
-    <t>pandas.DataFrame.select_dtypes</t>
-  </si>
-  <si>
     <t>astype</t>
   </si>
   <si>
@@ -1003,9 +958,6 @@
     <t>numpy.memmap.sum</t>
   </si>
   <si>
-    <t>pandas.DataFrame.to_string</t>
-  </si>
-  <si>
     <t>numpy.sqrt</t>
   </si>
   <si>
@@ -1040,6 +992,63 @@
   </si>
   <si>
     <t>matplotlib.colorbar.make_axes</t>
+  </si>
+  <si>
+    <t>close()</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot.close()</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.close</t>
+  </si>
+  <si>
+    <t>.copy()</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.copy.html#pandas.DataFrame.copy</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame.copy</t>
+  </si>
+  <si>
+    <t>hist</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot.hist</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.hist</t>
+  </si>
+  <si>
+    <t>drop()</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame.drop()</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame.pivot</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.pivot.html#pandas.DataFrame.pivot</t>
+  </si>
+  <si>
+    <t>pandas.merge</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.merge.html#pandas.merge</t>
+  </si>
+  <si>
+    <t>searchsorted</t>
+  </si>
+  <si>
+    <t>pandas.Series.searchsorted</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.Series.searchsorted.html#pandas.Series.searchsorted</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1149,167 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1876,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,322 +2087,335 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>21390035</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2">
+        <v>6467832</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6467832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6467832</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6467832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7776679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7776679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7776679</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>21390035</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>21390035</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10202570</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10202570</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10202570</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13035764</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>334</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>21390035</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13411544</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>16476924</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>16476924</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>16476924</v>
+        <v>13413590</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>16476924</v>
+        <v>13413590</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2241,22 +2423,22 @@
         <v>13413590</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2264,299 +2446,301 @@
         <v>13413590</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>13413590</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
+      <c r="A18">
+        <v>16353729</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>13413590</v>
+        <v>16476924</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>22138800</v>
+        <v>16476924</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19463985</v>
+      </c>
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>41670630</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19463985</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19463985</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19463985</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>41670630</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>41670630</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>41682345</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19463985</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>41682345</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>41682345</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>33058590</v>
+        <v>19798153</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>41669000</v>
+        <v>19798153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>41669000</v>
+        <v>19798153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>14</v>
@@ -2567,721 +2751,734 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>41669000</v>
+        <v>19798153</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>26526230</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>41260764</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>41260764</v>
-      </c>
-      <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>22138800</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>41260764</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>41260764</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35">
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>19463985</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>19463985</v>
+        <v>26526230</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>19463985</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
+      <c r="A38" s="2">
+        <v>33058590</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38">
+      <c r="F38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>19463985</v>
+        <v>38579921</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>41679687</v>
+        <v>41260764</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41679687</v>
+        <v>41260764</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41679687</v>
+        <v>41260764</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41679687</v>
+        <v>41260764</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>41679687</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>46027368</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>46025932</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46025932</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>132</v>
+      <c r="A47" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47">
-        <v>16</v>
+      <c r="F47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46025932</v>
-      </c>
-      <c r="B48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>134</v>
+      <c r="A48" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F48" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
+      <c r="F48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>46025932</v>
-      </c>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" t="s">
-        <v>42</v>
+      <c r="A49" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>46025932</v>
+        <v>41670630</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7776679</v>
+        <v>41679687</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7776679</v>
+        <v>41679687</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>7776679</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
+      <c r="A53" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
+      <c r="F53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>16353729</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>158</v>
+      <c r="A54" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>6467832</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>90</v>
+      <c r="A55" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
+      <c r="F55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>6467832</v>
+        <v>46025932</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>6467832</v>
+        <v>46025932</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>6467832</v>
+        <v>46025932</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>10202570</v>
+        <v>46025932</v>
       </c>
       <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
         <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>10202570</v>
+        <v>16175874</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>10202570</v>
+        <v>13269890</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
@@ -3291,19 +3488,46 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+  <sortState ref="A2:H61">
+    <sortCondition ref="A31"/>
+  </sortState>
+  <conditionalFormatting sqref="E67:E1048576 E2:E39 E43:E59 E62">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:E42">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3316,7 +3540,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,19 +3581,19 @@
         <v>993984</v>
       </c>
       <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
         <v>307</v>
-      </c>
-      <c r="C2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D2" t="s">
-        <v>322</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -3383,16 +3607,16 @@
         <v>993984</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -3406,16 +3630,16 @@
         <v>1401712</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
@@ -3429,16 +3653,16 @@
         <v>1401712</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
@@ -3455,7 +3679,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3475,16 +3699,16 @@
         <v>2891790</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -3498,16 +3722,16 @@
         <v>3061761</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
         <v>40</v>
@@ -3521,10 +3745,10 @@
         <v>3061761</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -3541,10 +3765,10 @@
         <v>4936620</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -3561,16 +3785,16 @@
         <v>6910641</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
         <v>40</v>
@@ -3584,16 +3808,16 @@
         <v>6910641</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
         <v>40</v>
@@ -3607,16 +3831,16 @@
         <v>6910641</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
         <v>40</v>
@@ -3630,10 +3854,10 @@
         <v>7894791</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -3650,19 +3874,19 @@
         <v>7894791</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -3676,16 +3900,16 @@
         <v>8486294</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -3699,16 +3923,16 @@
         <v>8486294</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
@@ -3722,16 +3946,16 @@
         <v>8486294</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -3745,16 +3969,16 @@
         <v>8486294</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -3768,17 +3992,17 @@
         <v>8486294</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -3792,19 +4016,19 @@
         <v>10873824</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>40</v>
@@ -3818,16 +4042,16 @@
         <v>10873824</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -3841,16 +4065,16 @@
         <v>10873824</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -3864,16 +4088,16 @@
         <v>10873824</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -3887,16 +4111,16 @@
         <v>10873824</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -3910,16 +4134,16 @@
         <v>10873824</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
         <v>40</v>
@@ -3933,16 +4157,16 @@
         <v>17534106</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -3956,16 +4180,16 @@
         <v>17534106</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3979,17 +4203,17 @@
         <v>22138800</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -4003,16 +4227,16 @@
         <v>34986475</v>
       </c>
       <c r="B30" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
@@ -4026,19 +4250,19 @@
         <v>34986475</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -4051,27 +4275,27 @@
   <sortState ref="A2:I31">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="E32:E1048576 E1:E29">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+  <conditionalFormatting sqref="E1:E29 E32 E34:E1048576">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4081,10 +4305,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4128,19 +4352,19 @@
         <v>1574088</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4154,22 +4378,22 @@
         <v>1574088</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -4180,22 +4404,22 @@
         <v>1574088</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -4206,19 +4430,19 @@
         <v>6682784</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -4232,19 +4456,19 @@
         <v>6682784</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -4258,22 +4482,22 @@
         <v>6682784</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -4284,25 +4508,25 @@
         <v>6682784</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -4313,19 +4537,19 @@
         <v>6682784</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -4339,19 +4563,19 @@
         <v>6682784</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -4365,19 +4589,19 @@
         <v>7187504</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -4391,25 +4615,25 @@
         <v>7187504</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -4420,22 +4644,22 @@
         <v>10101700</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -4446,10 +4670,10 @@
         <v>10101700</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -4463,10 +4687,10 @@
         <v>12822762</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -4480,25 +4704,25 @@
         <v>12822762</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I16">
         <v>42</v>
@@ -4509,19 +4733,19 @@
         <v>13784201</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -4535,22 +4759,22 @@
         <v>13784201</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -4561,10 +4785,10 @@
         <v>13784201</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -4578,19 +4802,19 @@
         <v>13784201</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -4604,22 +4828,22 @@
         <v>13784201</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -4630,22 +4854,22 @@
         <v>13784201</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -4656,22 +4880,22 @@
         <v>14254379</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -4682,22 +4906,22 @@
         <v>14254379</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -4708,22 +4932,22 @@
         <v>14254379</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -4734,19 +4958,19 @@
         <v>14254379</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -4760,22 +4984,22 @@
         <v>14254379</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -4786,10 +5010,10 @@
         <v>14254379</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
@@ -4803,22 +5027,22 @@
         <v>27704490</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -4829,19 +5053,19 @@
         <v>27704490</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -4855,39 +5079,101 @@
         <v>27704490</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
         <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8213522</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>323</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5328556</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I32">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="E23 G21:G22 E26:E1048576 E1:E20">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+  <conditionalFormatting sqref="E23 G21:G22 E26:E32 E1:E20 E35:E1048576">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4895,7 +5181,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4903,7 +5189,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4911,7 +5197,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4919,7 +5205,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4927,7 +5213,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4935,7 +5221,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4943,7 +5229,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4951,7 +5237,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4959,7 +5245,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E33">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -4967,7 +5253,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FN"</formula>
     </cfRule>

--- a/api_link/experiment.xlsx
+++ b/api_link/experiment.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="pandas" sheetId="1" r:id="rId1"/>
-    <sheet name="numpy" sheetId="2" r:id="rId2"/>
-    <sheet name="matplotlib" sheetId="3" r:id="rId3"/>
+    <sheet name="Overall" sheetId="4" r:id="rId1"/>
+    <sheet name="pandas" sheetId="1" r:id="rId2"/>
+    <sheet name="numpy" sheetId="2" r:id="rId3"/>
+    <sheet name="matplotlib" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="334">
   <si>
     <t>Post ID</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Linked URL</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>lib</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.groupby.html#pandas.DataFrame.groupby</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>pandas</t>
   </si>
   <si>
@@ -172,21 +167,9 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.where.html#pandas.DataFrame.where</t>
   </si>
   <si>
-    <t>dtype</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.dtype.html#numpy.dtype</t>
-  </si>
-  <si>
     <t>df.iloc</t>
   </si>
   <si>
-    <t>df.drop</t>
-  </si>
-  <si>
-    <t>pandas.DataFrame.drop</t>
-  </si>
-  <si>
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.drop.html#pandas.DataFrame.drop</t>
   </si>
   <si>
@@ -199,9 +182,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.dropna.html#pandas.DataFrame.dropna</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>notnull</t>
   </si>
   <si>
@@ -220,21 +200,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.isnull.html#pandas.DataFrame.isnull</t>
   </si>
   <si>
-    <t>read_csv</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.read_csv.html#pandas.read_csv</t>
-  </si>
-  <si>
-    <t>genfromtxt</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.genfromtxt.html#numpy.genfromtxt</t>
-  </si>
-  <si>
-    <t>numpy.genfromtxt</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
@@ -271,12 +236,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.merge.html#pandas.DataFrame.merge</t>
   </si>
   <si>
-    <t>set_index</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.set_index.html#pandas.DataFrame.set_index</t>
-  </si>
-  <si>
     <t>fillna</t>
   </si>
   <si>
@@ -328,12 +287,6 @@
     <t>loc</t>
   </si>
   <si>
-    <t>pandas.DataFrame.set_index</t>
-  </si>
-  <si>
-    <t>pandas.read_csv</t>
-  </si>
-  <si>
     <t>drop_duplicates</t>
   </si>
   <si>
@@ -370,9 +323,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.core.groupby.DataFrameGroupBy.any.html#pandas.core.groupby.DataFrameGroupBy.any</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>pandas.Series.str.contains</t>
   </si>
   <si>
@@ -382,6 +332,12 @@
     <t>str.contains</t>
   </si>
   <si>
+    <t>pandas.concat</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.concat.html#pandas.concat</t>
+  </si>
+  <si>
     <t>https://docs.python.org/2/library/functions.html#apply</t>
   </si>
   <si>
@@ -430,15 +386,6 @@
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.Panel.rename.html#pandas.Panel.rename</t>
   </si>
   <si>
-    <t>.agg</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.core.groupby.DataFrameGroupBy.agg.html#pandas.core.groupby.DataFrameGroupBy.agg</t>
-  </si>
-  <si>
-    <t>pandas.core.groupby.DataFrameGroupBy.agg</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -490,15 +437,6 @@
     <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.ndarray.astype.html#numpy.ndarray.astype</t>
   </si>
   <si>
-    <t>np.array</t>
-  </si>
-  <si>
-    <t>numpy.array</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.array.html#numpy.array</t>
-  </si>
-  <si>
     <t>floor</t>
   </si>
   <si>
@@ -526,9 +464,6 @@
     <t>numpy.ceil</t>
   </si>
   <si>
-    <t>numpy.ndarray</t>
-  </si>
-  <si>
     <t>get_obj()</t>
   </si>
   <si>
@@ -577,24 +512,12 @@
     <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.argpartition.html#numpy.argpartition</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.linalg.norm.html#numpy.linalg.norm</t>
-  </si>
-  <si>
     <t>.sum()</t>
   </si>
   <si>
     <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.sum.html#numpy.sum</t>
   </si>
   <si>
-    <t>nansum</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.nansum.html#numpy.nansum</t>
-  </si>
-  <si>
     <t>nan_to_num</t>
   </si>
   <si>
@@ -616,12 +539,6 @@
     <t>ndim</t>
   </si>
   <si>
-    <t>ndarray</t>
-  </si>
-  <si>
-    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.ndarray.html#numpy.ndarray</t>
-  </si>
-  <si>
     <t>vstack</t>
   </si>
   <si>
@@ -682,33 +599,15 @@
     <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.axes</t>
   </si>
   <si>
-    <t>gcf()</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.gcf</t>
-  </si>
-  <si>
     <t>.gca()</t>
   </si>
   <si>
     <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.gca</t>
   </si>
   <si>
-    <t>gridspec</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/gridspec_api.html#matplotlib.gridspec.GridSpec</t>
-  </si>
-  <si>
-    <t>matplotlib.pyplot.gcf</t>
-  </si>
-  <si>
     <t>matplotlib.pyplot.gca</t>
   </si>
   <si>
-    <t>matplotlib.gridspec.GridSpec</t>
-  </si>
-  <si>
     <t>matplotlib.offsetbox.AnchoredOffsetbox.draw</t>
   </si>
   <si>
@@ -724,15 +623,6 @@
     <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.imshow</t>
   </si>
   <si>
-    <t>date2num</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/dates_api.html#matplotlib.dates.date2num</t>
-  </si>
-  <si>
-    <t>matplotlib.dates</t>
-  </si>
-  <si>
     <t>plot_date</t>
   </si>
   <si>
@@ -775,27 +665,9 @@
     <t>matplotlib.figure.Figure.tight_layout</t>
   </si>
   <si>
-    <t>add_axes</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/figure_api.html#matplotlib.figure.Figure.add_axes</t>
-  </si>
-  <si>
-    <t>matplotlib.figure.Figure</t>
-  </si>
-  <si>
     <t>figure.colorbar()</t>
   </si>
   <si>
-    <t>make_axes</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/colorbar_api.html#matplotlib.colorbar.make_axes</t>
-  </si>
-  <si>
-    <t>matplotlib.colorbar</t>
-  </si>
-  <si>
     <t>draw()</t>
   </si>
   <si>
@@ -811,33 +683,6 @@
     <t>http://matplotlib.org/api/colorbar_api.html#matplotlib.colorbar.ColorbarBase.set_ticks</t>
   </si>
   <si>
-    <t>get_xticks()</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/axes_api.html#matplotlib.axes.Axes.get_xticks</t>
-  </si>
-  <si>
-    <t>matplotlib.axes.Axes</t>
-  </si>
-  <si>
-    <t>get_yticks()</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/axes_api.html#matplotlib.axes.Axes.get_yticks</t>
-  </si>
-  <si>
-    <t>set_xticks()</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/axes_api.html#matplotlib.axes.Axes.set_xticks</t>
-  </si>
-  <si>
-    <t>set_yticks()</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/axes_api.html#matplotlib.axes.Axes.set_yticks</t>
-  </si>
-  <si>
     <t>locator_params()</t>
   </si>
   <si>
@@ -853,12 +698,6 @@
     <t>http://matplotlib.org/api/widgets_api.html#matplotlib.widgets.ToolHandles.set_data</t>
   </si>
   <si>
-    <t>autoscale_view</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/axes_api.html#matplotlib.axes.Axes.autoscale_view</t>
-  </si>
-  <si>
     <t>matplotlib.lines.Line2D.set_data</t>
   </si>
   <si>
@@ -871,18 +710,9 @@
     <t>http://matplotlib.org/api/figure_api.html#matplotlib.figure.Figure.savefig</t>
   </si>
   <si>
-    <t>spectral</t>
-  </si>
-  <si>
-    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.spectral</t>
-  </si>
-  <si>
     <t>ax.format_coord</t>
   </si>
   <si>
-    <t>matplotlib.pyplot.spectral</t>
-  </si>
-  <si>
     <t>matplotlib.axes.Axes.format_coord</t>
   </si>
   <si>
@@ -961,39 +791,9 @@
     <t>numpy.sqrt</t>
   </si>
   <si>
-    <t>numpy.dtype</t>
-  </si>
-  <si>
-    <t>numpy.nansum</t>
-  </si>
-  <si>
-    <t>matplotlib.dates.date2num</t>
-  </si>
-  <si>
-    <t>matplotlib.axes.Axes.get_xticks</t>
-  </si>
-  <si>
-    <t>matplotlib.axes.Axes.get_yticks</t>
-  </si>
-  <si>
     <t>matplotlib.pyplot.locator_params</t>
   </si>
   <si>
-    <t>matplotlib.axes.Axes.set_xticks</t>
-  </si>
-  <si>
-    <t>matplotlib.axes.Axes.set_yticks</t>
-  </si>
-  <si>
-    <t>matplotlib.axes.Axes.autoscale_view</t>
-  </si>
-  <si>
-    <t>matplotlib.figure.Figure.add_axes</t>
-  </si>
-  <si>
-    <t>matplotlib.colorbar.make_axes</t>
-  </si>
-  <si>
     <t>close()</t>
   </si>
   <si>
@@ -1049,6 +849,189 @@
   </si>
   <si>
     <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.Series.searchsorted.html#pandas.Series.searchsorted</t>
+  </si>
+  <si>
+    <t>isin</t>
+  </si>
+  <si>
+    <t>pandas.Index.isin</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.Index.isin.html#pandas.Index.isin</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame.mask</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.mask.html#pandas.DataFrame.mask</t>
+  </si>
+  <si>
+    <t>round()</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.TimedeltaIndex.round.html#pandas.TimedeltaIndex.round</t>
+  </si>
+  <si>
+    <t>pandas.TimedeltaIndex.round</t>
+  </si>
+  <si>
+    <t>.render()</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.core.style.Styler.render.html#pandas.core.style.Styler.render</t>
+  </si>
+  <si>
+    <t>pandas.core.style.Styler.render</t>
+  </si>
+  <si>
+    <t>unstack</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame.unstack</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.DataFrame.unstack.html#pandas.DataFrame.unstack</t>
+  </si>
+  <si>
+    <t>strftime</t>
+  </si>
+  <si>
+    <t>pandas.Series.dt.strftime</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.Series.dt.strftime.html#pandas.Series.dt.strftime</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.log.html#numpy.log</t>
+  </si>
+  <si>
+    <t>numpy.log</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>numpy.split</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.split.html#numpy.split</t>
+  </si>
+  <si>
+    <t>empty()</t>
+  </si>
+  <si>
+    <t>numpy.empty()</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.empty.html#numpy.empty</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>numpy.roll</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.roll.html#numpy.roll</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.any.html#numpy.any</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>http://docs.scipy.org/doc/numpy-1.10.1/reference/generated/numpy.exp.html#numpy.exp</t>
+  </si>
+  <si>
+    <t>numpy.exp</t>
+  </si>
+  <si>
+    <t>clear()</t>
+  </si>
+  <si>
+    <t>matplotlib.figure.Figure.clear()</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/figure_api.html#matplotlib.figure.Figure.clear</t>
+  </si>
+  <si>
+    <t>set_facecolor</t>
+  </si>
+  <si>
+    <t>matplotlib.figure.Figure.set_facecolor</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/figure_api.html#matplotlib.figure.Figure.set_facecolor</t>
+  </si>
+  <si>
+    <t>normalize</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/colors_api.html#matplotlib.colors.Normalize</t>
+  </si>
+  <si>
+    <t>matplotlib.colors.Normalize</t>
+  </si>
+  <si>
+    <t>matplotlib.dates.DateFormatter.strftime</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/dates_api.html#matplotlib.dates.DateFormatter.strftime</t>
+  </si>
+  <si>
+    <t>contains_point</t>
+  </si>
+  <si>
+    <t>matplotlib.path.Path.contains_point</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/path_api.html#matplotlib.path.Path.contains_point</t>
+  </si>
+  <si>
+    <t>set_dashes</t>
+  </si>
+  <si>
+    <t>matplotlib.lines.Line2D.set_dashes</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/lines_api.html#matplotlib.lines.Line2D.set_dashes</t>
+  </si>
+  <si>
+    <t>stackplot</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot.stackplot</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.stackplot</t>
+  </si>
+  <si>
+    <t>figure()</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.figure</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot.figure</t>
+  </si>
+  <si>
+    <t>clf()</t>
+  </si>
+  <si>
+    <t>http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.clf</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot.clf</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1132,887 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="150">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2043,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,250 +2943,240 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6467832</v>
+        <v>3305865</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2"/>
+        <v>277</v>
+      </c>
       <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6467832</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3"/>
+        <v>112</v>
+      </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6467832</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4"/>
+        <v>71</v>
+      </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6467832</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5"/>
+        <v>115</v>
+      </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7776679</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6"/>
+        <v>65</v>
+      </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7776679</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7"/>
+        <v>8</v>
+      </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7776679</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8"/>
+        <v>109</v>
+      </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
         <v>14</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10202570</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9"/>
+        <v>121</v>
+      </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10202570</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10"/>
+        <v>124</v>
+      </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10202570</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11"/>
+        <v>118</v>
+      </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2331,19 +3184,19 @@
         <v>13035764</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2351,165 +3204,168 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>13269890</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>13411544</v>
       </c>
-      <c r="B13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13">
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13413590</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13413590</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13413590</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13413590</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>16175874</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16353729</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>16476924</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+      <c r="D19" t="s">
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
         <v>10</v>
       </c>
     </row>
@@ -2518,91 +3374,89 @@
         <v>16476924</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19463985</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>16476924</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19463985</v>
+        <v>17071871</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22"/>
+        <v>273</v>
+      </c>
       <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>274</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>19463985</v>
+        <v>17781159</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23"/>
+        <v>280</v>
+      </c>
       <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>282</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2610,22 +3464,22 @@
         <v>19463985</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2633,72 +3487,68 @@
         <v>19463985</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19463985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>19463985</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
         <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>19798153</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2706,23 +3556,25 @@
         <v>19798153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2730,20 +3582,20 @@
         <v>19798153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
@@ -2754,40 +3606,44 @@
         <v>19798153</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>19798153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2">
         <v>5</v>
@@ -2795,73 +3651,69 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>21390035</v>
+        <v>19798153</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>21390035</v>
+        <v>19798153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>21390035</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
@@ -2872,22 +3724,22 @@
         <v>21390035</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" s="2">
         <v>3</v>
@@ -2895,159 +3747,166 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>22138800</v>
+        <v>21390035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>26526230</v>
       </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
         <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>33058590</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38579921</v>
+        <v>28031254</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>41260764</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>86</v>
+      <c r="A40" s="2">
+        <v>33058590</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>41260764</v>
+        <v>38579921</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41260764</v>
+        <v>40268630</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3055,70 +3914,62 @@
         <v>41260764</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>41669000</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>86</v>
+      <c r="A44">
+        <v>41260764</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>41669000</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>89</v>
+      <c r="A45">
+        <v>41260764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3126,20 +3977,20 @@
         <v>41669000</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
@@ -3147,50 +3998,50 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>41670630</v>
+        <v>41669000</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>41670630</v>
+        <v>41669000</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,134 +4049,134 @@
         <v>41670630</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>41670630</v>
       </c>
-      <c r="B50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>41679687</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>41678594</v>
+      </c>
+      <c r="B52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>41679687</v>
       </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>41682345</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="3">
-        <v>5</v>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>41682345</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>78</v>
+      <c r="A54">
+        <v>41679687</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3333,72 +4184,70 @@
         <v>41682345</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>46025932</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
+      <c r="A56" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" t="s">
-        <v>94</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>46025932</v>
+        <v>42619425</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>290</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3406,19 +4255,19 @@
         <v>46025932</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -3429,105 +4278,1619 @@
         <v>46025932</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>149</v>
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16175874</v>
+        <v>46025932</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>338</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H60">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>13269890</v>
+        <v>46025932</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>336</v>
-      </c>
-      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>993984</v>
+      </c>
+      <c r="B62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>993984</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1401712</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1401712</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2891790</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3061761</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4936620</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5355744</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6910641</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>6910641</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>6910641</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>7894791</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7894791</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8486294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8486294</v>
+      </c>
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8486294</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8486294</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8486294</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79">
         <v>14</v>
       </c>
-      <c r="H61">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10873824</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>10873824</v>
+      </c>
+      <c r="B81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>10873824</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>10873824</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>134</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17534106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>34986475</v>
+      </c>
+      <c r="B85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" t="s">
+        <v>248</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>34986475</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>249</v>
+      </c>
+      <c r="D86" t="s">
+        <v>238</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>35049081</v>
+      </c>
+      <c r="B87" t="s">
+        <v>295</v>
+      </c>
+      <c r="D87" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>35954419</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>242</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>304</v>
+      </c>
+      <c r="G88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>38444245</v>
+      </c>
+      <c r="B89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>293</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>38837860</v>
+      </c>
+      <c r="B90" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" t="s">
+        <v>307</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>306</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>38921558</v>
+      </c>
+      <c r="B91" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>303</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>741877</v>
+      </c>
+      <c r="B92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" t="s">
+        <v>330</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>741877</v>
+      </c>
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" t="s">
+        <v>333</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>332</v>
+      </c>
+      <c r="G93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1574088</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>199</v>
+      </c>
+      <c r="G94" t="s">
+        <v>184</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1574088</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95">
         <v>3</v>
       </c>
     </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2225995</v>
+      </c>
+      <c r="B96" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" t="s">
+        <v>326</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>327</v>
+      </c>
+      <c r="G96" t="s">
+        <v>184</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>4581504</v>
+      </c>
+      <c r="B97" t="s">
+        <v>311</v>
+      </c>
+      <c r="D97" t="s">
+        <v>312</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" t="s">
+        <v>184</v>
+      </c>
+      <c r="H97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5328556</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>262</v>
+      </c>
+      <c r="G98" t="s">
+        <v>184</v>
+      </c>
+      <c r="H98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6682784</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>218</v>
+      </c>
+      <c r="G99" t="s">
+        <v>184</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>6682784</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" t="s">
+        <v>184</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>7187504</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>221</v>
+      </c>
+      <c r="G101" t="s">
+        <v>184</v>
+      </c>
+      <c r="H101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>7404116</v>
+      </c>
+      <c r="B102" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" t="s">
+        <v>184</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8213522</v>
+      </c>
+      <c r="B103" t="s">
+        <v>308</v>
+      </c>
+      <c r="D103" t="s">
+        <v>309</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>310</v>
+      </c>
+      <c r="G103" t="s">
+        <v>184</v>
+      </c>
+      <c r="H103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8213522</v>
+      </c>
+      <c r="B104" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>256</v>
+      </c>
+      <c r="G104" t="s">
+        <v>184</v>
+      </c>
+      <c r="H104">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>10101700</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>225</v>
+      </c>
+      <c r="G105" t="s">
+        <v>184</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10101700</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>11835500</v>
+      </c>
+      <c r="B107" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" t="s">
+        <v>184</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>12822762</v>
+      </c>
+      <c r="B108" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>193</v>
+      </c>
+      <c r="G108" t="s">
+        <v>184</v>
+      </c>
+      <c r="H108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>12822762</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>13784201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>207</v>
+      </c>
+      <c r="G110" t="s">
+        <v>184</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>13784201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="D111" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>204</v>
+      </c>
+      <c r="G111" t="s">
+        <v>184</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>13784201</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" t="s">
+        <v>184</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>13784201</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>14254379</v>
+      </c>
+      <c r="B114" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>190</v>
+      </c>
+      <c r="G114" t="s">
+        <v>184</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>14254379</v>
+      </c>
+      <c r="B115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" t="s">
+        <v>184</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>14254379</v>
+      </c>
+      <c r="B116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>183</v>
+      </c>
+      <c r="G116" t="s">
+        <v>184</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>14254379</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>15438783</v>
+      </c>
+      <c r="B118" t="s">
+        <v>322</v>
+      </c>
+      <c r="D118" t="s">
+        <v>323</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>324</v>
+      </c>
+      <c r="G118" t="s">
+        <v>184</v>
+      </c>
+      <c r="H118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>27704490</v>
+      </c>
+      <c r="B119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>196</v>
+      </c>
+      <c r="G119" t="s">
+        <v>184</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>27704490</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>36730261</v>
+      </c>
+      <c r="B121" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" t="s">
+        <v>320</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>321</v>
+      </c>
+      <c r="G121" t="s">
+        <v>184</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <f>AVERAGE(H2:H121)</f>
+        <v>7.5607476635514015</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H61">
-    <sortCondition ref="A31"/>
-  </sortState>
-  <conditionalFormatting sqref="E67:E1048576 E2:E39 E43:E59 E62">
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
+  <conditionalFormatting sqref="E59 E41:E56 E122:E1048576 E4:E37">
+    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E42">
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+  <conditionalFormatting sqref="E38:E40">
+    <cfRule type="cellIs" dxfId="93" priority="41" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="40" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E61 E122:E1048576">
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E89">
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E91">
+    <cfRule type="cellIs" dxfId="80" priority="29" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110 E113:E118 E98:E108">
+    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="28" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="75" priority="23" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E94">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3537,10 +5900,1503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3305865</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6467832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6467832</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6467832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7776679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7776679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7776679</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10202570</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10202570</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10202570</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13035764</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13269890</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13411544</v>
+      </c>
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13413590</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>13413590</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>13413590</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16175874</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16353729</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>16476924</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>16476924</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17071871</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>17781159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19463985</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19463985</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19463985</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>19463985</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>19798153</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>21390035</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>26526230</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>28031254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>33058590</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38579921</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40268630</v>
+      </c>
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41260764</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41260764</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41260764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>41669000</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>41670630</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>41678594</v>
+      </c>
+      <c r="B52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>41679687</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>41679687</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>41682345</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>42619425</v>
+      </c>
+      <c r="B57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>46025932</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>46025932</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>46025932</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>46025932</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
+  <conditionalFormatting sqref="E59 E41:E56 E67:E1048576 E4:E37">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:E40">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3570,10 +7426,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3581,25 +7437,22 @@
         <v>993984</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3607,22 +7460,25 @@
         <v>993984</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3630,22 +7486,22 @@
         <v>1401712</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3653,131 +7509,131 @@
         <v>1401712</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1401712</v>
+        <v>2891790</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
       <c r="H6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2891790</v>
+        <v>3061761</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3061761</v>
+        <v>4936620</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>196</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3061761</v>
+        <v>5355744</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>300</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4936620</v>
+        <v>6910641</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3785,19 +7641,19 @@
         <v>6910641</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -3808,45 +7664,48 @@
         <v>6910641</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6910641</v>
+        <v>7894791</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3854,45 +7713,42 @@
         <v>7894791</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7894791</v>
+        <v>8486294</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>173</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3900,22 +7756,22 @@
         <v>8486294</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3923,19 +7779,19 @@
         <v>8486294</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -3946,19 +7802,19 @@
         <v>8486294</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -3969,46 +7825,48 @@
         <v>8486294</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>8486294</v>
+        <v>10873824</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20"/>
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
       <c r="D20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,25 +7874,22 @@
         <v>10873824</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,22 +7897,22 @@
         <v>10873824</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4065,237 +7920,252 @@
         <v>10873824</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>10873824</v>
+        <v>17534106</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10873824</v>
+        <v>34986475</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10873824</v>
+        <v>34986475</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>237</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17534106</v>
+        <v>35049081</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>17534106</v>
+        <v>35954419</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>22138800</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>66</v>
+      <c r="A29">
+        <v>38444245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>34986475</v>
+        <v>38837860</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>307</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>34986475</v>
+        <v>38921558</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>295</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>22</v>
+        <v>302</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:I31">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H33">
+    <sortCondition ref="A2:A31"/>
   </sortState>
-  <conditionalFormatting sqref="E1:E29 E32 E34:E1048576">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+  <conditionalFormatting sqref="E1 E32 E36:E1048576 E5:E29">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4303,12 +8173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:I34"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4318,7 +8188,7 @@
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4343,837 +8213,721 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1574088</v>
+        <v>741877</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1574088</v>
+        <v>741877</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3">
+        <v>184</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1574088</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4">
+        <v>184</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1574088</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6682784</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2225995</v>
+      </c>
+      <c r="B6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4581504</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5328556</v>
+      </c>
+      <c r="B8" t="s">
         <v>260</v>
       </c>
-      <c r="D5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D8" t="s">
         <v>261</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>262</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6682784</v>
-      </c>
-      <c r="B6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6682784</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6682784</v>
-      </c>
-      <c r="B8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>259</v>
-      </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6682784</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6682784</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7187504</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
       </c>
       <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7404116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8213522</v>
+      </c>
+      <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8213522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10101700</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10101700</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11835500</v>
+      </c>
+      <c r="B17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>318</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7187504</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12822762</v>
+      </c>
+      <c r="B18" t="s">
         <v>212</v>
       </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10101700</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10101700</v>
-      </c>
-      <c r="B14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>12822762</v>
       </c>
-      <c r="B15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12822762</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13784201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>13784201</v>
-      </c>
-      <c r="B18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>13784201</v>
-      </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13784201</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13784201</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>212</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13784201</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22">
+        <v>184</v>
+      </c>
+      <c r="H22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>14254379</v>
+        <v>13784201</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>220</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>14254379</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24">
+        <v>184</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>14254379</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25">
+        <v>184</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14254379</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14254379</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14254379</v>
+        <v>15438783</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27704490</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29">
+        <v>184</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27704490</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>27704490</v>
+        <v>36730261</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>8213522</v>
-      </c>
-      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>321</v>
       </c>
-      <c r="D33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>5328556</v>
-      </c>
-      <c r="B34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="H34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34">
-        <v>7</v>
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I32">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:I36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
-  <conditionalFormatting sqref="E23 G21:G22 E26:E32 E1:E20 E35:E1048576">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+  <conditionalFormatting sqref="E20 E23:E28 E36:E1048576 E1 E8:E18">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
-      <formula>"FN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>"FP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -5181,7 +8935,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -5190,46 +8944,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"FP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"FN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"FN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"FP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"FN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"FP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"FN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"FP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -5237,7 +8975,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
+  <conditionalFormatting sqref="E29">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -5245,7 +8983,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
@@ -5253,7 +8991,7 @@
       <formula>"FP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E2:E4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FN"</formula>
     </cfRule>
